--- a/Data/Municipios2.xlsx
+++ b/Data/Municipios2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdtorres\Documents\Homicide_Esri\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39337B1-3A04-4B6C-823A-38CF233AC7D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83E31B-D822-46AB-A39F-E16E5A3B9005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="83" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="54245" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <sheet name="23419" sheetId="96" r:id="rId90"/>
     <sheet name="23574" sheetId="98" r:id="rId91"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
